--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetBasketballEmptyMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetBasketballEmptyMarketsList.xlsx
@@ -20,10 +20,10 @@
     <t>3717136  This game has no available Markets</t>
   </si>
   <si>
-    <t>3750832  This game has no available Markets</t>
+    <t>3750833  This game has no available Markets</t>
   </si>
   <si>
-    <t>3750833  This game has no available Markets</t>
+    <t>3754500  This game has no available Markets</t>
   </si>
 </sst>
 </file>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetBasketballEmptyMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetBasketballEmptyMarketsList.xlsx
@@ -12,18 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>3717111  This game has no available Markets</t>
   </si>
   <si>
     <t>3717136  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3750833  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3754500  This game has no available Markets</t>
   </si>
 </sst>
 </file>
@@ -68,7 +62,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,16 +81,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetBasketballEmptyMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetBasketballEmptyMarketsList.xlsx
@@ -12,12 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>3717111  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717136  This game has no available Markets</t>
+    <t>3767075  This game has no available Markets</t>
   </si>
 </sst>
 </file>
@@ -62,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -76,11 +73,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
